--- a/biology/Histoire de la zoologie et de la botanique/Toshisada_Nishida/Toshisada_Nishida.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Toshisada_Nishida/Toshisada_Nishida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Toshisada Nishida (西田 利貞, Nishida Toshisada?, 3 mars 1941 - 7 juin 2011) est un des pionniers de la primatologie.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Toshisada Nishida établit en 1965 une des premières stations de recherche de terrain consacrée à l'étude du comportement des chimpanzés. Il est le premier à découvrir que, au lieu de former des groupes centrés autour d'un noyau familial, les chimpanzés vivent en groupes multi-familiaux au sein d'un territoire clairement délimité par des frontières. Il est également le premier à mettre en évidence l'utilisation de plantes médicinales chez les chimpanzés. Il a été professeur au département de zoologie de l'université de Kyoto.
 Toshisada Nishida a reçu le prix Louis Leakey pour ses travaux dans le domaine de la biologie évolutive de l'Homme.
